--- a/docs/assets/downloads/Muster-Upload-erweitert.xlsx
+++ b/docs/assets/downloads/Muster-Upload-erweitert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dome\Desktop\gb\_Demodaten\_Demodaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dome\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5486ED-9AF8-483F-AC35-657DF4BB425C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BEAAE-F1A4-4850-A065-77ABEFBAC033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="750" windowWidth="21045" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11025" yWindow="1500" windowWidth="32265" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adressliste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Straße</t>
   </si>
@@ -188,17 +188,54 @@
   </si>
   <si>
     <t>Skills lassen sich für alle Fahrzeug-/Fahrereigenschaften benutzen, so bspw. auch gleich für die Namen der Fahrer</t>
+  </si>
+  <si>
+    <t>Start am nächsten Tag (ja/nein)</t>
+  </si>
+  <si>
+    <t>Ende am nächsten Tag (ja/nein)</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Hinweis zu "Start/Ende am nächsten Tag (ja/nein)":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiRoute Tour! geht per Default davon aus, dass alle Ihre Aufträge am gleichen Kalendertag bearbeitet werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bsp.: Ein Auftrag kann zwischen 22:00 Uhr und 02:00 des Folgetages erledigt werden. 22:00 Uhr bezieht sich hierbei auf den Ausgangstag (Default). </t>
+  </si>
+  <si>
+    <t>Wenn Sie Aufträge in der Nacht erledigen oder Sie generell in längeren Schichten arbeiten, müssen Sie dies entsprechend kennzeichnen.</t>
+  </si>
+  <si>
+    <t>In diesem Fall kann die Zelle entweder leer gelassen oder mit einem "nein" gekennzeichnet werden.</t>
+  </si>
+  <si>
+    <t>02:00 Uhr hingegen meint den Folgetag und muss entsprechend mit "ja" gekennzeichnet werden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -303,37 +340,34 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -643,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -651,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,32 +705,32 @@
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -805,7 +839,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -813,49 +847,49 @@
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -864,17 +898,17 @@
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -900,65 +934,145 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="13">
         <v>0.5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
